--- a/Companies/Trading/Adani Enterprises Ltd/Pruned_Excel/2_Dec14_Dec15.xlsx
+++ b/Companies/Trading/Adani Enterprises Ltd/Pruned_Excel/2_Dec14_Dec15.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Dec '14</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '15</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '15</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '15</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Dec '15</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '15</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '15</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '15</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '14</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>4,221.69</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3,310.67</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2,396.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1,967.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>1,747.73</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1,967.91</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2,396.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3,310.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4,221.69</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>4221.69</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>1747.73</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>2728.916</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>3.08</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>12.03</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.56</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>7.818</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>4,229.25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3,317.91</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2,405.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1,979.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>1,750.81</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1,979.94</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2,405.76</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3,317.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4,229.25</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>4229.25</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>1750.81</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>2736.734</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>3,578.09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2,191.08</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1,822.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1,331.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>1,304.15</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1,331.34</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1,822.67</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2,191.08</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3,578.09</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>3578.09</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>1304.15</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>2045.466</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>-118.61</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>399.67</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>109.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>46.00</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>109.70</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>27.24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>399.67</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-118.61</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>399.67</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>-118.61</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>92.8</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>52.71</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>64.63</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>77.12</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>56.88</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>33.95</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>52.71</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>77.12</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>33.95</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>57.05800000000001</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>18.46</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20.44</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>20.34</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>20.65</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>18.38</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>20.65</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>18.38</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>19.654</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>623.05</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>708.08</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>389.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>419.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>208.75</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>419.21</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>389.80</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>708.08</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>623.05</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>708.08</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>208.75</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>469.778</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-35.52</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>108.82</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>22.13</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-35.52</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>75.63</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>108.82</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>-35.52</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>51.97799999999999</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>289.82</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>279.32</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>172.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>371.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>181.82</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>371.38</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>172.21</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>279.32</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>289.82</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>371.38</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>172.21</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>258.91</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>365.45</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>243.80</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>261.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>393.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>290.64</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>393.51</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>261.04</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>243.80</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>365.45</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>393.51</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>243.8</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>310.888</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>236.14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>231.91</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>186.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>184.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>171.80</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>184.87</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>186.65</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>231.91</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>236.14</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>236.14</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>171.8</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>202.274</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>129.31</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>208.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>118.84</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>208.64</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>74.39</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>11.89</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>129.31</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>208.64</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>108.614</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>70.99</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>45.25</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>70.99</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>70.98999999999999</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>45.25</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>58.12</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>129.31</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>208.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>164.09</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>208.64</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>74.39</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>82.88</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>129.31</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>208.64</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>74.39</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>131.862</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-2.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-8.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>8.20</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>-8.15</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-2.53</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>10.08</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>-8.15</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>3.232</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>120.75</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>72.80</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>216.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>155.89</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>216.79</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>76.92</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>72.80</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>120.75</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>216.79</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>128.63</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>120.75</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>72.80</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>216.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>155.89</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>216.79</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>76.92</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>72.80</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>120.75</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>216.79</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>128.63</v>
       </c>
     </row>
     <row r="22">
@@ -1272,15 +1087,6 @@
         <is>
           <t>109.98</t>
         </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>109.98</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>109.98</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>109.98</v>
       </c>
     </row>
     <row r="23"/>
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>1.42</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>1.17</v>
       </c>
     </row>
     <row r="26">
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>1.42</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>1.17</v>
       </c>
     </row>
     <row r="27"/>
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>1.42</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>1.17</v>
       </c>
     </row>
     <row r="30">
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>1.42</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>1.17</v>
       </c>
     </row>
     <row r="31"/>
@@ -1479,12 +1249,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>27.50</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>27.50</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1494,22 +1264,13 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>27.50</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>27.50</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>27.5</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1520,12 +1281,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1535,22 +1296,13 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>25</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="35"/>
@@ -1577,12 +1329,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>14.68</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>12.96</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1592,22 +1344,13 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12.96</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>14.68</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="J39" s="2" t="n">
-        <v>16.01</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1618,12 +1361,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>17.80</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>15.71</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1633,22 +1376,13 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>15.71</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>17.80</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>24.72</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>19.41</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1659,12 +1393,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>11.79</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1674,22 +1408,13 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11.79</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>13.35</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>14.56</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="42"/>
@@ -1708,12 +1433,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>67.81</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>69.52</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1723,22 +1448,13 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>69.52</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>67.81</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>69.52</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="J44" s="2" t="n">
-        <v>66.47666666666667</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1749,12 +1465,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>82.20</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>84.29</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1764,22 +1480,13 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>84.29</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>82.20</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>84.29000000000001</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>72.28</v>
-      </c>
-      <c r="J45" s="2" t="n">
-        <v>79.59</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1790,12 +1497,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>61.65</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>63.21</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1805,22 +1512,13 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>63.21</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>61.65</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>63.21</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>56.46</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>60.44</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
   </sheetData>
